--- a/bin/com/ebank/Keyword/keyword_Result.xlsx
+++ b/bin/com/ebank/Keyword/keyword_Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
   <si>
     <t>Description</t>
   </si>
@@ -153,13 +153,13 @@
     <t>rBLogin</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>BLOCKED</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -589,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -683,6 +683,9 @@
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -697,6 +700,9 @@
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -711,6 +717,9 @@
       <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -725,6 +734,9 @@
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -810,7 +822,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -827,7 +839,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
